--- a/T_ModeloFisico_criacao_hroads.xlsx
+++ b/T_ModeloFisico_criacao_hroads.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47425337800\Documents\projetos\2s2019-t2-hroads-sprint-1-bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47425337800\Documents\projetos2\2s2019-t2-hroads-sprint-1-bd\2s2019-t2-hroads-sprint-1-bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6C64FA-4B7A-4573-86E7-628A23E7BCE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3ACCC6-EB37-4C1F-BFF8-D9AFC418294D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10815" windowHeight="5955" xr2:uid="{39C302EB-62DD-45B9-A28B-8C39CA2F40A6}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A29065F-C863-48FC-8A47-804381839862}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,11 +859,10 @@
       </c>
       <c r="F28" s="1">
         <f ca="1">NOW()</f>
-        <v>43686.598473379629</v>
+        <v>43686.638471412036</v>
       </c>
       <c r="G28" s="2">
-        <f>DATE(2019,1,18)</f>
-        <v>43483</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,7 +883,7 @@
       </c>
       <c r="F29" s="1">
         <f ca="1">NOW()</f>
-        <v>43686.598473379629</v>
+        <v>43686.638471412036</v>
       </c>
       <c r="G29" s="2">
         <f>DATE(2016,3,17)</f>
@@ -909,7 +908,7 @@
       </c>
       <c r="F30" s="1">
         <f ca="1">NOW()</f>
-        <v>43686.598473379629</v>
+        <v>43686.638471412036</v>
       </c>
       <c r="G30" s="2">
         <f>DATE(2018,3,18)</f>

--- a/T_ModeloFisico_criacao_hroads.xlsx
+++ b/T_ModeloFisico_criacao_hroads.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47425337800\Documents\projetos2\2s2019-t2-hroads-sprint-1-bd\2s2019-t2-hroads-sprint-1-bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32124423878\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3ACCC6-EB37-4C1F-BFF8-D9AFC418294D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D74244-D822-47EE-90B8-762F032B19A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10815" windowHeight="5955" xr2:uid="{39C302EB-62DD-45B9-A28B-8C39CA2F40A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{39C302EB-62DD-45B9-A28B-8C39CA2F40A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -174,20 +174,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="26">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,58 +284,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E52A7D27-E17F-45AC-BA17-FD37107A6498}" name="Tabela1" displayName="Tabela1" ref="A3:B6" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E52A7D27-E17F-45AC-BA17-FD37107A6498}" name="Tabela1" displayName="Tabela1" ref="A3:B6" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B1D78047-4146-4D76-92A2-193D65AD3846}" name="IdTipo"/>
-    <tableColumn id="2" xr3:uid="{1CD9D5A4-76C9-44C4-9124-B619D7D27527}" name="Tipo"/>
+    <tableColumn id="1" xr3:uid="{B1D78047-4146-4D76-92A2-193D65AD3846}" name="IdTipo" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{1CD9D5A4-76C9-44C4-9124-B619D7D27527}" name="Tipo" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4A23753B-61AE-4BE9-8AD7-B89704C7919A}" name="Tabela2" displayName="Tabela2" ref="A9:C13" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4A23753B-61AE-4BE9-8AD7-B89704C7919A}" name="Tabela2" displayName="Tabela2" ref="A9:C13" headerRowCount="0" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FB91BB62-D002-4352-B585-AED5F79C4A37}" name="Coluna1"/>
-    <tableColumn id="2" xr3:uid="{00D9C37F-ACC3-4796-A217-0C546E2CF25F}" name="Coluna2"/>
-    <tableColumn id="3" xr3:uid="{221A249A-02F4-437A-9A87-B1CB1742E58E}" name="Coluna3"/>
+    <tableColumn id="1" xr3:uid="{FB91BB62-D002-4352-B585-AED5F79C4A37}" name="Coluna1" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00D9C37F-ACC3-4796-A217-0C546E2CF25F}" name="Coluna2" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{221A249A-02F4-437A-9A87-B1CB1742E58E}" name="Coluna3" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3192773A-E97A-4368-A456-3269C2E196D5}" name="Tabela3" displayName="Tabela3" ref="A17:B23" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3192773A-E97A-4368-A456-3269C2E196D5}" name="Tabela3" displayName="Tabela3" ref="A17:B23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{94854326-C23A-4DC7-BF10-A24BB6E25A2A}" name="idclasse"/>
-    <tableColumn id="2" xr3:uid="{54889AB1-FADB-41B1-BEE3-58224159B4C5}" name="classe"/>
+    <tableColumn id="1" xr3:uid="{94854326-C23A-4DC7-BF10-A24BB6E25A2A}" name="idclasse" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{54889AB1-FADB-41B1-BEE3-58224159B4C5}" name="classe" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB9C877F-5215-4A10-8E50-2D79ED074910}" name="Tabela4" displayName="Tabela4" ref="E3:F12" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB9C877F-5215-4A10-8E50-2D79ED074910}" name="Tabela4" displayName="Tabela4" ref="E3:F12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FA531C1D-8D1D-427A-9EEA-2411D2DEE4AD}" name="Coluna1"/>
-    <tableColumn id="2" xr3:uid="{34EB0EEA-E83F-4876-88A6-A06FF3F02E9A}" name="Coluna2"/>
+    <tableColumn id="1" xr3:uid="{FA531C1D-8D1D-427A-9EEA-2411D2DEE4AD}" name="Coluna1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{34EB0EEA-E83F-4876-88A6-A06FF3F02E9A}" name="Coluna2" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE2A134C-CD8F-48E8-BD48-58E1461681EC}" name="Tabela5" displayName="Tabela5" ref="A27:G30" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE2A134C-CD8F-48E8-BD48-58E1461681EC}" name="Tabela5" displayName="Tabela5" ref="A27:G30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{440CE41F-5A09-4BF7-9B6B-2C6690EAA9F8}" name="Coluna1"/>
-    <tableColumn id="2" xr3:uid="{47BB120B-F0CA-4D63-A37A-312A83A1E7F9}" name="Coluna2"/>
-    <tableColumn id="3" xr3:uid="{7706CD74-D4AD-46F0-89BE-1FFF7DF6647C}" name="Coluna3"/>
-    <tableColumn id="4" xr3:uid="{66D25F72-4988-4FA2-8F0B-F61CF28BE697}" name="Coluna4"/>
-    <tableColumn id="5" xr3:uid="{3A60E2B6-AAA1-47A0-BA93-D96D13C9054D}" name="Coluna5"/>
-    <tableColumn id="6" xr3:uid="{4B74596E-EDB2-4FA7-A55A-5F3883C3E2A9}" name="Coluna6" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{440CE41F-5A09-4BF7-9B6B-2C6690EAA9F8}" name="Coluna1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{47BB120B-F0CA-4D63-A37A-312A83A1E7F9}" name="Coluna2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7706CD74-D4AD-46F0-89BE-1FFF7DF6647C}" name="Coluna3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{66D25F72-4988-4FA2-8F0B-F61CF28BE697}" name="Coluna4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3A60E2B6-AAA1-47A0-BA93-D96D13C9054D}" name="Coluna5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4B74596E-EDB2-4FA7-A55A-5F3883C3E2A9}" name="Coluna6" dataDxfId="3">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3E6A1707-AF7F-4643-8D8F-46A587908989}" name="Coluna7" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{3E6A1707-AF7F-4643-8D8F-46A587908989}" name="Coluna7" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -559,358 +640,481 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A29065F-C863-48FC-8A47-804381839862}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>100</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>80</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <f ca="1">NOW()</f>
-        <v>43686.638471412036</v>
-      </c>
-      <c r="G28" s="2">
-        <v>10</v>
+        <v>43686.62639513889</v>
+      </c>
+      <c r="G28" s="3">
+        <f>DATE(2019,1,18)</f>
+        <v>43483</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>70</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>100</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <f ca="1">NOW()</f>
-        <v>43686.638471412036</v>
-      </c>
-      <c r="G29" s="2">
+        <v>43686.62639513889</v>
+      </c>
+      <c r="G29" s="3">
         <f>DATE(2016,3,17)</f>
         <v>42446</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>75</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>60</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <f ca="1">NOW()</f>
-        <v>43686.638471412036</v>
-      </c>
-      <c r="G30" s="2">
+        <v>43686.62639513889</v>
+      </c>
+      <c r="G30" s="3">
         <f>DATE(2018,3,18)</f>
         <v>43177</v>
       </c>
